--- a/Houston_Rockets_2025-26_stats.xlsx
+++ b/Houston_Rockets_2025-26_stats.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assists" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rebounds" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3PM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1538,7 +1542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1549,143 +1553,537 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Game Time (PST)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Points</t>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Holiday</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Amen Thompson</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>JD Davison</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Jae'Sean Tate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jabari Smith Jr.</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Steven Adams</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Reed Sheppard</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Tari Eason</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Josh Okogie</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Alperen Sengun</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Clint Capela</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jeff Green</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>24.77777777777778</v>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>22.77777777777778</v>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>17.55555555555556</v>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11.44444444444444</v>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Reed Sheppard</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11.22222222222222</v>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Josh Okogie</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.555555555555555</v>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.75</v>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Aaron Holiday</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jeff Green</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>JD Davison</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.666666666666667</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jae'Sean Tate</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.2</v>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1694,6 +2092,561 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Aaron Holiday</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Amen Thompson</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>JD Davison</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Jae'Sean Tate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jabari Smith Jr.</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Steven Adams</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Reed Sheppard</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Tari Eason</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Josh Okogie</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Alperen Sengun</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Clint Capela</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Jeff Green</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,13 +2668,174 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg Assists</t>
+          <t>Avg Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24.77777777777778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alperen Sengun</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22.77777777777778</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Amen Thompson</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17.55555555555556</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jabari Smith Jr.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tari Eason</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11.44444444444444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Reed Sheppard</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.22222222222222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Josh Okogie</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8.555555555555555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Steven Adams</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Clint Capela</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Aaron Holiday</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jeff Green</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>JD Davison</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jae'Sean Tate</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Assists</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Alperen Sengun</t>
         </is>
       </c>
@@ -1843,6 +2957,328 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Jeff Green</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rebounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alperen Sengun</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.888888888888889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Steven Adams</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Amen Thompson</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jabari Smith Jr.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tari Eason</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.111111111111111</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Clint Capela</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.777777777777778</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.555555555555555</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Reed Sheppard</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.111111111111111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Josh Okogie</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.888888888888889</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jae'Sean Tate</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Aaron Holiday</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jeff Green</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>JD Davison</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg 3PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reed Sheppard</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.555555555555555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tari Eason</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.444444444444445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jabari Smith Jr.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Josh Okogie</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.555555555555556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Alperen Sengun</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.222222222222222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jeff Green</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>JD Davison</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Amen Thompson</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Aaron Holiday</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jae'Sean Tate</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Steven Adams</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B14" t="n">

--- a/Houston_Rockets_2025-26_stats.xlsx
+++ b/Houston_Rockets_2025-26_stats.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Assists" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg Rebounds" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avg 3PM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Team Points" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +975,57 @@
       </c>
       <c r="O10" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>16</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,6 +1580,57 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1542,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2084,6 +2187,57 @@
       </c>
       <c r="O10" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2639,6 +2793,57 @@
       </c>
       <c r="O10" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2884,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.77777777777778</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="3">
@@ -2689,7 +2894,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.77777777777778</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="4">
@@ -2699,7 +2904,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.55555555555556</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="5">
@@ -2709,7 +2914,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>14.11111111111111</v>
       </c>
     </row>
     <row r="6">
@@ -2719,7 +2924,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.44444444444444</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="7">
@@ -2729,7 +2934,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.22222222222222</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="8">
@@ -2739,7 +2944,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.555555555555555</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="9">
@@ -2749,7 +2954,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.75</v>
+        <v>6.555555555555555</v>
       </c>
     </row>
     <row r="10">
@@ -2759,37 +2964,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>JD Davison</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JD Davison</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.666666666666667</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -2799,7 +3004,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.2</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +3045,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.333333333333333</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3">
@@ -2850,33 +3055,33 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.333333333333333</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Reed Sheppard</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.222222222222222</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Reed Sheppard</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.111111111111111</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tari Eason</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2890,17 +3095,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9">
@@ -2910,7 +3115,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.333333333333333</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -2920,7 +3125,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11">
@@ -2930,7 +3135,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -2940,7 +3145,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -2950,7 +3155,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -3001,7 +3206,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.888888888888889</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="3">
@@ -3011,27 +3216,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.875</v>
+        <v>8.777777777777779</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.666666666666667</v>
+        <v>6.111111111111111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jabari Smith Jr.</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.875</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="6">
@@ -3041,27 +3246,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.111111111111111</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.777777777777778</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.555555555555555</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9">
@@ -3071,7 +3276,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.111111111111111</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="10">
@@ -3081,7 +3286,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.888888888888889</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="11">
@@ -3091,7 +3296,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="12">
@@ -3101,7 +3306,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
@@ -3111,7 +3316,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -3162,7 +3367,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.555555555555555</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
@@ -3172,7 +3377,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.444444444444445</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -3182,7 +3387,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1.777777777777778</v>
       </c>
     </row>
     <row r="5">
@@ -3192,7 +3397,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.666666666666667</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -3202,7 +3407,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.555555555555556</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
@@ -3212,7 +3417,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.222222222222222</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
@@ -3232,7 +3437,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
@@ -3242,7 +3447,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -3252,7 +3457,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -3283,6 +3488,262 @@
       </c>
       <c r="B14" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Game Time (PST)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opponent Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Game Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>124</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>111</v>
+      </c>
+      <c r="D3" t="n">
+        <v>115</v>
+      </c>
+      <c r="E3" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>109</v>
+      </c>
+      <c r="E4" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>139</v>
+      </c>
+      <c r="D5" t="n">
+        <v>121</v>
+      </c>
+      <c r="E5" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>128</v>
+      </c>
+      <c r="D6" t="n">
+        <v>101</v>
+      </c>
+      <c r="E6" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>110</v>
+      </c>
+      <c r="D7" t="n">
+        <v>102</v>
+      </c>
+      <c r="E7" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>124</v>
+      </c>
+      <c r="D8" t="n">
+        <v>109</v>
+      </c>
+      <c r="E8" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>110</v>
+      </c>
+      <c r="D9" t="n">
+        <v>121</v>
+      </c>
+      <c r="E9" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>122</v>
+      </c>
+      <c r="D10" t="n">
+        <v>115</v>
+      </c>
+      <c r="E10" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>135</v>
+      </c>
+      <c r="D11" t="n">
+        <v>112</v>
+      </c>
+      <c r="E11" t="n">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
